--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a39b1e62616a2fb/ドキュメント/03_資産運用/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{C1B7F0E4-E53B-4D92-9B76-CA0D37E02E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0219E51-4411-4E30-AA65-29A3EB3C9762}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B3C2F-0054-4A22-8147-CF6EF5ED7B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
+    <workbookView xWindow="-2628" yWindow="516" windowWidth="25872" windowHeight="13740" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
   <sheets>
     <sheet name="ウォッチリスト" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>足立 理(ＦＡ本 ＦＡＤＳ推・ＤＥＶ２)</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{7CC12FCD-3098-4F60-9743-50B0888BEF47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>個別：1、ETF：2、投信：3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -217,12 +242,27 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1489</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(NEXT FUNDS)日経平均高配当株50指数連動型ETF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +277,14 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -590,26 +638,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F794539-D0D1-46E9-9B49-7EDB033A93EC}">
-  <dimension ref="B2:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F794539-D0D1-46E9-9B49-7EDB033A93EC}">
+  <dimension ref="B2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="2"/>
     <col min="4" max="4" width="28.3984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.09765625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.09765625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,16 +669,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -639,11 +691,14 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -653,11 +708,14 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -667,11 +725,14 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -681,11 +742,14 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -695,11 +759,14 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -709,11 +776,14 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -723,11 +793,14 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -737,11 +810,14 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -751,11 +827,14 @@
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -765,11 +844,14 @@
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -779,11 +861,14 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -793,11 +878,14 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -807,11 +895,14 @@
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -821,11 +912,14 @@
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -835,11 +929,14 @@
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -849,11 +946,14 @@
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -863,11 +963,14 @@
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -877,11 +980,14 @@
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -891,11 +997,14 @@
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -905,11 +1014,14 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -919,11 +1031,14 @@
       <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -933,11 +1048,14 @@
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -947,11 +1065,14 @@
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -961,11 +1082,14 @@
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -975,11 +1099,14 @@
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -989,11 +1116,14 @@
       <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -1003,11 +1133,14 @@
       <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -1017,11 +1150,14 @@
       <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -1031,11 +1167,14 @@
       <c r="D31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -1045,11 +1184,14 @@
       <c r="D32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -1059,11 +1201,14 @@
       <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -1073,11 +1218,14 @@
       <c r="D34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -1087,11 +1235,14 @@
       <c r="D35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -1101,11 +1252,14 @@
       <c r="D36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -1115,11 +1269,14 @@
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -1129,11 +1286,14 @@
       <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -1143,11 +1303,14 @@
       <c r="D39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="3">
         <v>38</v>
       </c>
@@ -1157,11 +1320,14 @@
       <c r="D40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="3">
         <v>39</v>
       </c>
@@ -1171,11 +1337,14 @@
       <c r="D41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="3">
         <v>40</v>
       </c>
@@ -1185,11 +1354,14 @@
       <c r="D42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="3">
         <v>41</v>
       </c>
@@ -1199,11 +1371,14 @@
       <c r="D43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="3">
         <v>42</v>
       </c>
@@ -1213,11 +1388,14 @@
       <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="3">
         <v>43</v>
       </c>
@@ -1227,11 +1405,14 @@
       <c r="D45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="3">
         <v>44</v>
       </c>
@@ -1241,11 +1422,14 @@
       <c r="D46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="3">
         <v>45</v>
       </c>
@@ -1255,11 +1439,14 @@
       <c r="D47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="3">
         <v>46</v>
       </c>
@@ -1269,11 +1456,14 @@
       <c r="D48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="3">
         <v>47</v>
       </c>
@@ -1283,11 +1473,14 @@
       <c r="D49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -1297,11 +1490,14 @@
       <c r="D50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="4">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -1311,12 +1507,33 @@
       <c r="D51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="4">
-        <v>45616</v>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="3">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45623</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B3C2F-0054-4A22-8147-CF6EF5ED7B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADFA3D-AD63-41FB-A04A-9807875C3664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2628" yWindow="516" windowWidth="25872" windowHeight="13740" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
   <sheets>
     <sheet name="ウォッチリスト" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ウォッチリスト!$A$2:$H$140</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +55,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>個別：1、ETF：2、投信：3</t>
+          <t>日本個別：1、日本ETF：2、日本投信：3、米国ETF：4</t>
         </r>
       </text>
     </comment>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -254,6 +257,389 @@
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eMAXIS Slim米国株式(S&amp;P500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03311187</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eMAXIS Slim全世界株式(オール･カントリー)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0331418A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9I31223A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9I31123A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9I314241</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9I313349</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VYM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GLDM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6752</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4755</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7856</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6503</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2163</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8173</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8214</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8267</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4396</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3198</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7630</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1890</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9432</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8905</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6417</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7994</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3391</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7272</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3088</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2353</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1904</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3968</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7164</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8566</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3561</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8070</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9956</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6432</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4665</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9380</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3465</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2198</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7148</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2503</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5445</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2715</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2811</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6785</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4246</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2146</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6180</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5576</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2269</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2281</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7337</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3261</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7182</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9384</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8877</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3148</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3141</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3097</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3543</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5208</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3231</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3912</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9831</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7388</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8142</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5334</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8593</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3063</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6419</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8892</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8425</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3407</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7296</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4732</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9997</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7203</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9308</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6418</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「(NEXT FUNDS)日経平均高配当株50指数連動型ETF」組込み銘柄</t>
+    <rPh sb="32" eb="34">
+      <t>クミコ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>メイガラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「指数推移.xlsx」より転記</t>
+    <rPh sb="1" eb="3">
+      <t>シスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,7 +715,18 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -639,23 +1036,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F794539-D0D1-46E9-9B49-7EDB033A93EC}">
-  <dimension ref="B2:H52"/>
+  <dimension ref="B2:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="2"/>
-    <col min="4" max="4" width="28.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.09765625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="2"/>
+    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -697,6 +1094,9 @@
       <c r="F3" s="4">
         <v>45616</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="3">
@@ -714,6 +1114,9 @@
       <c r="F4" s="4">
         <v>45616</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3">
@@ -731,6 +1134,9 @@
       <c r="F5" s="4">
         <v>45616</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="3">
@@ -748,6 +1154,9 @@
       <c r="F6" s="4">
         <v>45616</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="3">
@@ -765,6 +1174,9 @@
       <c r="F7" s="4">
         <v>45616</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="3">
@@ -782,6 +1194,9 @@
       <c r="F8" s="4">
         <v>45616</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="3">
@@ -799,6 +1214,9 @@
       <c r="F9" s="4">
         <v>45616</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="3">
@@ -816,6 +1234,9 @@
       <c r="F10" s="4">
         <v>45616</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="3">
@@ -833,6 +1254,9 @@
       <c r="F11" s="4">
         <v>45616</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="3">
@@ -850,6 +1274,9 @@
       <c r="F12" s="4">
         <v>45616</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="3">
@@ -867,6 +1294,9 @@
       <c r="F13" s="4">
         <v>45616</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="3">
@@ -884,6 +1314,9 @@
       <c r="F14" s="4">
         <v>45616</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="3">
@@ -901,6 +1334,9 @@
       <c r="F15" s="4">
         <v>45616</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="3">
@@ -918,8 +1354,11 @@
       <c r="F16" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="H16" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -935,8 +1374,11 @@
       <c r="F17" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="H17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -952,8 +1394,11 @@
       <c r="F18" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="H18" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -969,8 +1414,11 @@
       <c r="F19" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="H19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -986,8 +1434,11 @@
       <c r="F20" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="H20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -1003,8 +1454,11 @@
       <c r="F21" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="H21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -1020,8 +1474,11 @@
       <c r="F22" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="H22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -1037,8 +1494,11 @@
       <c r="F23" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="H23" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -1054,8 +1514,11 @@
       <c r="F24" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="H24" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -1071,8 +1534,11 @@
       <c r="F25" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="H25" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -1088,8 +1554,11 @@
       <c r="F26" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="H26" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -1105,8 +1574,11 @@
       <c r="F27" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="H27" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -1122,8 +1594,11 @@
       <c r="F28" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="H28" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -1139,8 +1614,11 @@
       <c r="F29" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="H29" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -1156,8 +1634,11 @@
       <c r="F30" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="H30" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -1173,8 +1654,11 @@
       <c r="F31" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="H31" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -1190,8 +1674,11 @@
       <c r="F32" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="H32" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -1207,8 +1694,11 @@
       <c r="F33" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="H33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -1224,8 +1714,11 @@
       <c r="F34" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="H34" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -1241,8 +1734,11 @@
       <c r="F35" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="H35" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -1258,8 +1754,11 @@
       <c r="F36" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="H36" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -1275,8 +1774,11 @@
       <c r="F37" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="H37" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -1292,8 +1794,11 @@
       <c r="F38" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="H38" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -1309,8 +1814,11 @@
       <c r="F39" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="H39" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="3">
         <v>38</v>
       </c>
@@ -1326,8 +1834,11 @@
       <c r="F40" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="H40" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="3">
         <v>39</v>
       </c>
@@ -1343,8 +1854,11 @@
       <c r="F41" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="H41" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="3">
         <v>40</v>
       </c>
@@ -1360,8 +1874,11 @@
       <c r="F42" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="H42" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="3">
         <v>41</v>
       </c>
@@ -1377,8 +1894,11 @@
       <c r="F43" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="H43" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="3">
         <v>42</v>
       </c>
@@ -1394,8 +1914,11 @@
       <c r="F44" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="H44" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="3">
         <v>43</v>
       </c>
@@ -1411,8 +1934,11 @@
       <c r="F45" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="H45" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="3">
         <v>44</v>
       </c>
@@ -1428,8 +1954,11 @@
       <c r="F46" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="H46" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" s="3">
         <v>45</v>
       </c>
@@ -1445,8 +1974,11 @@
       <c r="F47" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="H47" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="3">
         <v>46</v>
       </c>
@@ -1462,8 +1994,11 @@
       <c r="F48" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="H48" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="3">
         <v>47</v>
       </c>
@@ -1479,8 +2014,11 @@
       <c r="F49" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="H49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -1496,8 +2034,11 @@
       <c r="F50" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="H50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -1513,8 +2054,11 @@
       <c r="F51" s="4">
         <v>45616</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="H51" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="3">
         <v>50</v>
       </c>
@@ -1530,10 +2074,1520 @@
       <c r="F52" s="4">
         <v>45623</v>
       </c>
+      <c r="H52" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="3">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="3">
+        <v>52</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="3">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="3">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="3">
+        <v>55</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="3">
+        <v>56</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="3">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
+      <c r="F59" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="3">
+        <v>58</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="3">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="3">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="3">
+        <v>61</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="3">
+        <v>62</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="3">
+        <v>63</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="3">
+        <v>64</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="3">
+        <v>65</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="3">
+        <v>66</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="3">
+        <v>67</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="3">
+        <v>68</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="3">
+        <v>69</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="3">
+        <v>70</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="3">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="3">
+        <v>72</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="3">
+        <v>73</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="3">
+        <v>74</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="3">
+        <v>75</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="3">
+        <v>76</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="3">
+        <v>77</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="3">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="3">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="3">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="3">
+        <v>81</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="3">
+        <v>82</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="3">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="3">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="3">
+        <v>85</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="3">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="3">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="3">
+        <v>88</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="3">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="3">
+        <v>90</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="3">
+        <v>91</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="3">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="3">
+        <v>93</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="3">
+        <v>94</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="3">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="3">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="3">
+        <v>97</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="3">
+        <v>98</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="3">
+        <v>99</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="3">
+        <v>100</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="3">
+        <v>101</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="3">
+        <v>102</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="3">
+        <v>103</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="3">
+        <v>104</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="3">
+        <v>105</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="3">
+        <v>106</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="3">
+        <v>107</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="3">
+        <v>108</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="3">
+        <v>109</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="3">
+        <v>110</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="3">
+        <v>111</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="3">
+        <v>112</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="3">
+        <v>113</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="3">
+        <v>114</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="3">
+        <v>115</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="3">
+        <v>116</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="3">
+        <v>117</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="3">
+        <v>118</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="3">
+        <v>119</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="3">
+        <v>120</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="3">
+        <v>121</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="3">
+        <v>122</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="3">
+        <v>123</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="3">
+        <v>124</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="3">
+        <v>125</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="3">
+        <v>126</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="3">
+        <v>127</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="3">
+        <v>128</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="3">
+        <v>129</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="3">
+        <v>130</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="3">
+        <v>131</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="3">
+        <v>132</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="3">
+        <v>133</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="3">
+        <v>134</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="3">
+        <v>135</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="3">
+        <v>136</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="3">
+        <v>137</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="3">
+        <v>138</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="4">
+        <v>45624</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H140" xr:uid="{8F794539-D0D1-46E9-9B49-7EDB033A93EC}"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a39b1e62616a2fb/ドキュメント/03_資産運用/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADFA3D-AD63-41FB-A04A-9807875C3664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{9AADFA3D-AD63-41FB-A04A-9807875C3664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC3F3F1-88A9-0F4E-A84B-8A9601B6C950}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
   <sheets>
     <sheet name="ウォッチリスト" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ウォッチリスト!$A$2:$H$140</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="155">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -642,6 +642,46 @@
       <t>テンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「指数推移.xlsx」より転記。2024/11/29：信用倍率が異常なのと、時価総額が低いので削除。</t>
+    <rPh sb="1" eb="3">
+      <t>シスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ジカソウガク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>ユナイテッド・スーパーマーケット・ホールディングス</t>
+  </si>
+  <si>
+    <t>日経新聞。優待利回り。</t>
   </si>
 </sst>
 </file>
@@ -1036,23 +1076,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F794539-D0D1-46E9-9B49-7EDB033A93EC}">
-  <dimension ref="B2:H140"/>
+  <dimension ref="B2:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="2"/>
-    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="2.6953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.65625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.703125" style="2"/>
+    <col min="4" max="4" width="28.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.64453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.01171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -3202,8 +3242,11 @@
       <c r="F118" s="4">
         <v>45624</v>
       </c>
+      <c r="G118" s="4">
+        <v>45625</v>
+      </c>
       <c r="H118" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="2:8">
@@ -3578,6 +3621,26 @@
       </c>
       <c r="H140" s="1" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="3">
+        <v>139</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="4">
+        <v>45626</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OptimalTraderDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB770C6C-2092-46FE-9939-075260546217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E542961-6451-4925-BF2A-37DBCB680175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
@@ -13255,6 +13255,9 @@
       <c r="F52" s="4">
         <v>45623</v>
       </c>
+      <c r="G52" s="4">
+        <v>45633</v>
+      </c>
       <c r="H52" s="1" t="s">
         <v>149</v>
       </c>
@@ -13275,6 +13278,9 @@
       <c r="F53" s="4">
         <v>45624</v>
       </c>
+      <c r="G53" s="4">
+        <v>45633</v>
+      </c>
       <c r="H53" s="1" t="s">
         <v>149</v>
       </c>
@@ -13295,6 +13301,9 @@
       <c r="F54" s="4">
         <v>45624</v>
       </c>
+      <c r="G54" s="4">
+        <v>45633</v>
+      </c>
       <c r="H54" s="1" t="s">
         <v>149</v>
       </c>
@@ -13312,6 +13321,9 @@
       <c r="F55" s="4">
         <v>45624</v>
       </c>
+      <c r="G55" s="4">
+        <v>45633</v>
+      </c>
       <c r="H55" s="1" t="s">
         <v>149</v>
       </c>
@@ -13329,6 +13341,9 @@
       <c r="F56" s="4">
         <v>45624</v>
       </c>
+      <c r="G56" s="4">
+        <v>45633</v>
+      </c>
       <c r="H56" s="1" t="s">
         <v>149</v>
       </c>
@@ -13346,6 +13361,9 @@
       <c r="F57" s="4">
         <v>45624</v>
       </c>
+      <c r="G57" s="4">
+        <v>45633</v>
+      </c>
       <c r="H57" s="1" t="s">
         <v>149</v>
       </c>
@@ -13363,6 +13381,9 @@
       <c r="F58" s="4">
         <v>45624</v>
       </c>
+      <c r="G58" s="4">
+        <v>45633</v>
+      </c>
       <c r="H58" s="1" t="s">
         <v>149</v>
       </c>
@@ -13380,6 +13401,9 @@
       <c r="F59" s="4">
         <v>45624</v>
       </c>
+      <c r="G59" s="4">
+        <v>45633</v>
+      </c>
       <c r="H59" s="1" t="s">
         <v>149</v>
       </c>
@@ -13397,6 +13421,9 @@
       <c r="F60" s="4">
         <v>45624</v>
       </c>
+      <c r="G60" s="4">
+        <v>45633</v>
+      </c>
       <c r="H60" s="1" t="s">
         <v>149</v>
       </c>
@@ -13414,6 +13441,9 @@
       <c r="F61" s="4">
         <v>45624</v>
       </c>
+      <c r="G61" s="4">
+        <v>45633</v>
+      </c>
       <c r="H61" s="1" t="s">
         <v>149</v>
       </c>
@@ -13431,6 +13461,9 @@
       <c r="F62" s="4">
         <v>45624</v>
       </c>
+      <c r="G62" s="4">
+        <v>45633</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>149</v>
       </c>
@@ -13448,6 +13481,9 @@
       <c r="F63" s="4">
         <v>45624</v>
       </c>
+      <c r="G63" s="4">
+        <v>45633</v>
+      </c>
       <c r="H63" s="1" t="s">
         <v>149</v>
       </c>
@@ -13465,6 +13501,9 @@
       <c r="F64" s="4">
         <v>45624</v>
       </c>
+      <c r="G64" s="4">
+        <v>45633</v>
+      </c>
       <c r="H64" s="1" t="s">
         <v>149</v>
       </c>
@@ -13482,6 +13521,9 @@
       <c r="F65" s="4">
         <v>45624</v>
       </c>
+      <c r="G65" s="4">
+        <v>45633</v>
+      </c>
       <c r="H65" s="1" t="s">
         <v>149</v>
       </c>
@@ -13499,6 +13541,9 @@
       <c r="F66" s="4">
         <v>45624</v>
       </c>
+      <c r="G66" s="4">
+        <v>45633</v>
+      </c>
       <c r="H66" s="1" t="s">
         <v>149</v>
       </c>
@@ -13516,6 +13561,9 @@
       <c r="F67" s="4">
         <v>45624</v>
       </c>
+      <c r="G67" s="4">
+        <v>45633</v>
+      </c>
       <c r="H67" s="1" t="s">
         <v>149</v>
       </c>
@@ -13533,6 +13581,9 @@
       <c r="F68" s="4">
         <v>45624</v>
       </c>
+      <c r="G68" s="4">
+        <v>45633</v>
+      </c>
       <c r="H68" s="1" t="s">
         <v>149</v>
       </c>
@@ -13550,6 +13601,9 @@
       <c r="F69" s="4">
         <v>45624</v>
       </c>
+      <c r="G69" s="4">
+        <v>45633</v>
+      </c>
       <c r="H69" s="1" t="s">
         <v>149</v>
       </c>
@@ -13567,6 +13621,9 @@
       <c r="F70" s="4">
         <v>45624</v>
       </c>
+      <c r="G70" s="4">
+        <v>45633</v>
+      </c>
       <c r="H70" s="1" t="s">
         <v>149</v>
       </c>
@@ -13584,6 +13641,9 @@
       <c r="F71" s="4">
         <v>45624</v>
       </c>
+      <c r="G71" s="4">
+        <v>45633</v>
+      </c>
       <c r="H71" s="1" t="s">
         <v>149</v>
       </c>
@@ -13601,6 +13661,9 @@
       <c r="F72" s="4">
         <v>45624</v>
       </c>
+      <c r="G72" s="4">
+        <v>45633</v>
+      </c>
       <c r="H72" s="1" t="s">
         <v>149</v>
       </c>
@@ -13618,6 +13681,9 @@
       <c r="F73" s="4">
         <v>45624</v>
       </c>
+      <c r="G73" s="4">
+        <v>45633</v>
+      </c>
       <c r="H73" s="1" t="s">
         <v>149</v>
       </c>
@@ -13635,6 +13701,9 @@
       <c r="F74" s="4">
         <v>45624</v>
       </c>
+      <c r="G74" s="4">
+        <v>45633</v>
+      </c>
       <c r="H74" s="1" t="s">
         <v>149</v>
       </c>
@@ -13652,6 +13721,9 @@
       <c r="F75" s="4">
         <v>45624</v>
       </c>
+      <c r="G75" s="4">
+        <v>45633</v>
+      </c>
       <c r="H75" s="1" t="s">
         <v>149</v>
       </c>
@@ -13669,6 +13741,9 @@
       <c r="F76" s="4">
         <v>45624</v>
       </c>
+      <c r="G76" s="4">
+        <v>45633</v>
+      </c>
       <c r="H76" s="1" t="s">
         <v>149</v>
       </c>
@@ -13686,6 +13761,9 @@
       <c r="F77" s="4">
         <v>45624</v>
       </c>
+      <c r="G77" s="4">
+        <v>45633</v>
+      </c>
       <c r="H77" s="1" t="s">
         <v>149</v>
       </c>
@@ -13703,6 +13781,9 @@
       <c r="F78" s="4">
         <v>45624</v>
       </c>
+      <c r="G78" s="4">
+        <v>45633</v>
+      </c>
       <c r="H78" s="1" t="s">
         <v>149</v>
       </c>
@@ -13720,6 +13801,9 @@
       <c r="F79" s="4">
         <v>45624</v>
       </c>
+      <c r="G79" s="4">
+        <v>45633</v>
+      </c>
       <c r="H79" s="1" t="s">
         <v>149</v>
       </c>
@@ -13737,6 +13821,9 @@
       <c r="F80" s="4">
         <v>45624</v>
       </c>
+      <c r="G80" s="4">
+        <v>45633</v>
+      </c>
       <c r="H80" s="1" t="s">
         <v>149</v>
       </c>
@@ -13754,6 +13841,9 @@
       <c r="F81" s="4">
         <v>45624</v>
       </c>
+      <c r="G81" s="4">
+        <v>45633</v>
+      </c>
       <c r="H81" s="1" t="s">
         <v>149</v>
       </c>
@@ -13771,6 +13861,9 @@
       <c r="F82" s="4">
         <v>45624</v>
       </c>
+      <c r="G82" s="4">
+        <v>45633</v>
+      </c>
       <c r="H82" s="1" t="s">
         <v>149</v>
       </c>
@@ -13788,6 +13881,9 @@
       <c r="F83" s="4">
         <v>45624</v>
       </c>
+      <c r="G83" s="4">
+        <v>45633</v>
+      </c>
       <c r="H83" s="1" t="s">
         <v>149</v>
       </c>
@@ -13805,6 +13901,9 @@
       <c r="F84" s="4">
         <v>45624</v>
       </c>
+      <c r="G84" s="4">
+        <v>45633</v>
+      </c>
       <c r="H84" s="1" t="s">
         <v>149</v>
       </c>
@@ -13822,6 +13921,9 @@
       <c r="F85" s="4">
         <v>45624</v>
       </c>
+      <c r="G85" s="4">
+        <v>45633</v>
+      </c>
       <c r="H85" s="1" t="s">
         <v>149</v>
       </c>
@@ -13839,6 +13941,9 @@
       <c r="F86" s="4">
         <v>45624</v>
       </c>
+      <c r="G86" s="4">
+        <v>45633</v>
+      </c>
       <c r="H86" s="1" t="s">
         <v>149</v>
       </c>
@@ -13856,6 +13961,9 @@
       <c r="F87" s="4">
         <v>45624</v>
       </c>
+      <c r="G87" s="4">
+        <v>45633</v>
+      </c>
       <c r="H87" s="1" t="s">
         <v>149</v>
       </c>
@@ -13873,6 +13981,9 @@
       <c r="F88" s="4">
         <v>45624</v>
       </c>
+      <c r="G88" s="4">
+        <v>45633</v>
+      </c>
       <c r="H88" s="1" t="s">
         <v>149</v>
       </c>
@@ -13890,6 +14001,9 @@
       <c r="F89" s="4">
         <v>45624</v>
       </c>
+      <c r="G89" s="4">
+        <v>45633</v>
+      </c>
       <c r="H89" s="1" t="s">
         <v>149</v>
       </c>
@@ -13907,6 +14021,9 @@
       <c r="F90" s="4">
         <v>45624</v>
       </c>
+      <c r="G90" s="4">
+        <v>45633</v>
+      </c>
       <c r="H90" s="1" t="s">
         <v>149</v>
       </c>
@@ -13924,6 +14041,9 @@
       <c r="F91" s="4">
         <v>45624</v>
       </c>
+      <c r="G91" s="4">
+        <v>45633</v>
+      </c>
       <c r="H91" s="1" t="s">
         <v>149</v>
       </c>
@@ -13941,6 +14061,9 @@
       <c r="F92" s="4">
         <v>45624</v>
       </c>
+      <c r="G92" s="4">
+        <v>45633</v>
+      </c>
       <c r="H92" s="1" t="s">
         <v>149</v>
       </c>
@@ -13958,6 +14081,9 @@
       <c r="F93" s="4">
         <v>45624</v>
       </c>
+      <c r="G93" s="4">
+        <v>45633</v>
+      </c>
       <c r="H93" s="1" t="s">
         <v>149</v>
       </c>
@@ -13975,6 +14101,9 @@
       <c r="F94" s="4">
         <v>45624</v>
       </c>
+      <c r="G94" s="4">
+        <v>45633</v>
+      </c>
       <c r="H94" s="1" t="s">
         <v>149</v>
       </c>
@@ -13992,6 +14121,9 @@
       <c r="F95" s="4">
         <v>45624</v>
       </c>
+      <c r="G95" s="4">
+        <v>45633</v>
+      </c>
       <c r="H95" s="1" t="s">
         <v>149</v>
       </c>
@@ -14009,6 +14141,9 @@
       <c r="F96" s="4">
         <v>45624</v>
       </c>
+      <c r="G96" s="4">
+        <v>45633</v>
+      </c>
       <c r="H96" s="1" t="s">
         <v>149</v>
       </c>
@@ -14026,6 +14161,9 @@
       <c r="F97" s="4">
         <v>45624</v>
       </c>
+      <c r="G97" s="4">
+        <v>45633</v>
+      </c>
       <c r="H97" s="1" t="s">
         <v>149</v>
       </c>
@@ -14043,6 +14181,9 @@
       <c r="F98" s="4">
         <v>45624</v>
       </c>
+      <c r="G98" s="4">
+        <v>45633</v>
+      </c>
       <c r="H98" s="1" t="s">
         <v>149</v>
       </c>
@@ -14060,6 +14201,9 @@
       <c r="F99" s="4">
         <v>45624</v>
       </c>
+      <c r="G99" s="4">
+        <v>45633</v>
+      </c>
       <c r="H99" s="1" t="s">
         <v>149</v>
       </c>
@@ -14077,6 +14221,9 @@
       <c r="F100" s="4">
         <v>45624</v>
       </c>
+      <c r="G100" s="4">
+        <v>45633</v>
+      </c>
       <c r="H100" s="1" t="s">
         <v>149</v>
       </c>
@@ -14094,6 +14241,9 @@
       <c r="F101" s="4">
         <v>45624</v>
       </c>
+      <c r="G101" s="4">
+        <v>45633</v>
+      </c>
       <c r="H101" s="1" t="s">
         <v>149</v>
       </c>
@@ -14111,6 +14261,9 @@
       <c r="F102" s="4">
         <v>45624</v>
       </c>
+      <c r="G102" s="4">
+        <v>45633</v>
+      </c>
       <c r="H102" s="1" t="s">
         <v>149</v>
       </c>
@@ -14128,6 +14281,9 @@
       <c r="F103" s="4">
         <v>45624</v>
       </c>
+      <c r="G103" s="4">
+        <v>45633</v>
+      </c>
       <c r="H103" s="1" t="s">
         <v>149</v>
       </c>
@@ -14145,6 +14301,9 @@
       <c r="F104" s="4">
         <v>45624</v>
       </c>
+      <c r="G104" s="4">
+        <v>45633</v>
+      </c>
       <c r="H104" s="1" t="s">
         <v>149</v>
       </c>
@@ -14162,6 +14321,9 @@
       <c r="F105" s="4">
         <v>45624</v>
       </c>
+      <c r="G105" s="4">
+        <v>45633</v>
+      </c>
       <c r="H105" s="1" t="s">
         <v>149</v>
       </c>
@@ -14179,6 +14341,9 @@
       <c r="F106" s="4">
         <v>45624</v>
       </c>
+      <c r="G106" s="4">
+        <v>45633</v>
+      </c>
       <c r="H106" s="1" t="s">
         <v>149</v>
       </c>
@@ -14196,6 +14361,9 @@
       <c r="F107" s="4">
         <v>45624</v>
       </c>
+      <c r="G107" s="4">
+        <v>45633</v>
+      </c>
       <c r="H107" s="1" t="s">
         <v>149</v>
       </c>
@@ -14213,6 +14381,9 @@
       <c r="F108" s="4">
         <v>45624</v>
       </c>
+      <c r="G108" s="4">
+        <v>45633</v>
+      </c>
       <c r="H108" s="1" t="s">
         <v>149</v>
       </c>
@@ -14230,6 +14401,9 @@
       <c r="F109" s="4">
         <v>45624</v>
       </c>
+      <c r="G109" s="4">
+        <v>45633</v>
+      </c>
       <c r="H109" s="1" t="s">
         <v>149</v>
       </c>
@@ -14247,6 +14421,9 @@
       <c r="F110" s="4">
         <v>45624</v>
       </c>
+      <c r="G110" s="4">
+        <v>45633</v>
+      </c>
       <c r="H110" s="1" t="s">
         <v>149</v>
       </c>
@@ -14264,6 +14441,9 @@
       <c r="F111" s="4">
         <v>45624</v>
       </c>
+      <c r="G111" s="4">
+        <v>45633</v>
+      </c>
       <c r="H111" s="1" t="s">
         <v>149</v>
       </c>
@@ -14281,6 +14461,9 @@
       <c r="F112" s="4">
         <v>45624</v>
       </c>
+      <c r="G112" s="4">
+        <v>45633</v>
+      </c>
       <c r="H112" s="1" t="s">
         <v>149</v>
       </c>
@@ -14298,6 +14481,9 @@
       <c r="F113" s="4">
         <v>45624</v>
       </c>
+      <c r="G113" s="4">
+        <v>45633</v>
+      </c>
       <c r="H113" s="1" t="s">
         <v>149</v>
       </c>
@@ -14315,6 +14501,9 @@
       <c r="F114" s="4">
         <v>45624</v>
       </c>
+      <c r="G114" s="4">
+        <v>45633</v>
+      </c>
       <c r="H114" s="1" t="s">
         <v>149</v>
       </c>
@@ -14332,6 +14521,9 @@
       <c r="F115" s="4">
         <v>45624</v>
       </c>
+      <c r="G115" s="4">
+        <v>45633</v>
+      </c>
       <c r="H115" s="1" t="s">
         <v>149</v>
       </c>
@@ -14349,6 +14541,9 @@
       <c r="F116" s="4">
         <v>45624</v>
       </c>
+      <c r="G116" s="4">
+        <v>45633</v>
+      </c>
       <c r="H116" s="1" t="s">
         <v>149</v>
       </c>
@@ -14366,6 +14561,9 @@
       <c r="F117" s="4">
         <v>45624</v>
       </c>
+      <c r="G117" s="4">
+        <v>45633</v>
+      </c>
       <c r="H117" s="1" t="s">
         <v>149</v>
       </c>
@@ -14403,6 +14601,9 @@
       <c r="F119" s="4">
         <v>45624</v>
       </c>
+      <c r="G119" s="4">
+        <v>45633</v>
+      </c>
       <c r="H119" s="1" t="s">
         <v>149</v>
       </c>
@@ -14420,6 +14621,9 @@
       <c r="F120" s="4">
         <v>45624</v>
       </c>
+      <c r="G120" s="4">
+        <v>45633</v>
+      </c>
       <c r="H120" s="1" t="s">
         <v>149</v>
       </c>
@@ -14437,6 +14641,9 @@
       <c r="F121" s="4">
         <v>45624</v>
       </c>
+      <c r="G121" s="4">
+        <v>45633</v>
+      </c>
       <c r="H121" s="1" t="s">
         <v>149</v>
       </c>
@@ -14454,6 +14661,9 @@
       <c r="F122" s="4">
         <v>45624</v>
       </c>
+      <c r="G122" s="4">
+        <v>45633</v>
+      </c>
       <c r="H122" s="1" t="s">
         <v>149</v>
       </c>
@@ -14471,6 +14681,9 @@
       <c r="F123" s="4">
         <v>45624</v>
       </c>
+      <c r="G123" s="4">
+        <v>45633</v>
+      </c>
       <c r="H123" s="1" t="s">
         <v>149</v>
       </c>
@@ -14488,6 +14701,9 @@
       <c r="F124" s="4">
         <v>45624</v>
       </c>
+      <c r="G124" s="4">
+        <v>45633</v>
+      </c>
       <c r="H124" s="1" t="s">
         <v>149</v>
       </c>
@@ -14505,6 +14721,9 @@
       <c r="F125" s="4">
         <v>45624</v>
       </c>
+      <c r="G125" s="4">
+        <v>45633</v>
+      </c>
       <c r="H125" s="1" t="s">
         <v>149</v>
       </c>
@@ -14522,6 +14741,9 @@
       <c r="F126" s="4">
         <v>45624</v>
       </c>
+      <c r="G126" s="4">
+        <v>45633</v>
+      </c>
       <c r="H126" s="1" t="s">
         <v>149</v>
       </c>
@@ -14539,6 +14761,9 @@
       <c r="F127" s="4">
         <v>45624</v>
       </c>
+      <c r="G127" s="4">
+        <v>45633</v>
+      </c>
       <c r="H127" s="1" t="s">
         <v>149</v>
       </c>
@@ -14556,6 +14781,9 @@
       <c r="F128" s="4">
         <v>45624</v>
       </c>
+      <c r="G128" s="4">
+        <v>45633</v>
+      </c>
       <c r="H128" s="1" t="s">
         <v>149</v>
       </c>
@@ -14573,6 +14801,9 @@
       <c r="F129" s="4">
         <v>45624</v>
       </c>
+      <c r="G129" s="4">
+        <v>45633</v>
+      </c>
       <c r="H129" s="1" t="s">
         <v>149</v>
       </c>
@@ -14590,6 +14821,9 @@
       <c r="F130" s="4">
         <v>45624</v>
       </c>
+      <c r="G130" s="4">
+        <v>45633</v>
+      </c>
       <c r="H130" s="1" t="s">
         <v>149</v>
       </c>
@@ -14607,6 +14841,9 @@
       <c r="F131" s="4">
         <v>45624</v>
       </c>
+      <c r="G131" s="4">
+        <v>45633</v>
+      </c>
       <c r="H131" s="1" t="s">
         <v>149</v>
       </c>
@@ -14624,6 +14861,9 @@
       <c r="F132" s="4">
         <v>45624</v>
       </c>
+      <c r="G132" s="4">
+        <v>45633</v>
+      </c>
       <c r="H132" s="1" t="s">
         <v>149</v>
       </c>
@@ -14641,6 +14881,9 @@
       <c r="F133" s="4">
         <v>45624</v>
       </c>
+      <c r="G133" s="4">
+        <v>45633</v>
+      </c>
       <c r="H133" s="1" t="s">
         <v>149</v>
       </c>
@@ -14658,6 +14901,9 @@
       <c r="F134" s="4">
         <v>45624</v>
       </c>
+      <c r="G134" s="4">
+        <v>45633</v>
+      </c>
       <c r="H134" s="1" t="s">
         <v>149</v>
       </c>
@@ -14675,6 +14921,9 @@
       <c r="F135" s="4">
         <v>45624</v>
       </c>
+      <c r="G135" s="4">
+        <v>45633</v>
+      </c>
       <c r="H135" s="1" t="s">
         <v>149</v>
       </c>
@@ -14692,6 +14941,9 @@
       <c r="F136" s="4">
         <v>45624</v>
       </c>
+      <c r="G136" s="4">
+        <v>45633</v>
+      </c>
       <c r="H136" s="1" t="s">
         <v>149</v>
       </c>
@@ -14709,6 +14961,9 @@
       <c r="F137" s="4">
         <v>45624</v>
       </c>
+      <c r="G137" s="4">
+        <v>45633</v>
+      </c>
       <c r="H137" s="1" t="s">
         <v>149</v>
       </c>
@@ -14726,6 +14981,9 @@
       <c r="F138" s="4">
         <v>45624</v>
       </c>
+      <c r="G138" s="4">
+        <v>45633</v>
+      </c>
       <c r="H138" s="1" t="s">
         <v>149</v>
       </c>
@@ -14743,6 +15001,9 @@
       <c r="F139" s="4">
         <v>45624</v>
       </c>
+      <c r="G139" s="4">
+        <v>45633</v>
+      </c>
       <c r="H139" s="1" t="s">
         <v>149</v>
       </c>
@@ -14760,6 +15021,9 @@
       <c r="F140" s="4">
         <v>45624</v>
       </c>
+      <c r="G140" s="4">
+        <v>45633</v>
+      </c>
       <c r="H140" s="1" t="s">
         <v>149</v>
       </c>
@@ -14780,6 +15044,9 @@
       <c r="F141" s="4">
         <v>45626</v>
       </c>
+      <c r="G141" s="4">
+        <v>45633</v>
+      </c>
       <c r="H141" s="1" t="s">
         <v>153</v>
       </c>
@@ -14800,6 +15067,9 @@
       <c r="F142" s="4">
         <v>45630</v>
       </c>
+      <c r="G142" s="4">
+        <v>45633</v>
+      </c>
       <c r="H142" s="1" t="s">
         <v>158</v>
       </c>
@@ -14820,6 +15090,9 @@
       <c r="F143" s="4">
         <v>45631</v>
       </c>
+      <c r="G143" s="4">
+        <v>45633</v>
+      </c>
       <c r="H143" s="1" t="s">
         <v>158</v>
       </c>
@@ -14839,6 +15112,9 @@
       </c>
       <c r="F144" s="4">
         <v>45631</v>
+      </c>
+      <c r="G144" s="4">
+        <v>45633</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>161</v>

--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OptimalTraderDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E542961-6451-4925-BF2A-37DBCB680175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0425EDA9-01CB-471F-A0E7-A952220D04E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
@@ -14721,9 +14721,7 @@
       <c r="F125" s="4">
         <v>45624</v>
       </c>
-      <c r="G125" s="4">
-        <v>45633</v>
-      </c>
+      <c r="G125" s="4"/>
       <c r="H125" s="1" t="s">
         <v>149</v>
       </c>

--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037CA56C-CD82-4B85-8D4A-87DEF591A843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF90CE26-6FE8-4387-86E3-D227CAB60157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
   <sheets>
     <sheet name="ウォッチリスト" sheetId="1" r:id="rId1"/>
@@ -12248,17 +12248,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="2"/>
-    <col min="4" max="4" width="28.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.09765625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="2"/>
+    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="63" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -12303,6 +12303,9 @@
       <c r="G3" s="4">
         <v>45616</v>
       </c>
+      <c r="H3" s="4">
+        <v>45637</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>148</v>
       </c>
@@ -12323,6 +12326,9 @@
       <c r="G4" s="4">
         <v>45616</v>
       </c>
+      <c r="H4" s="4">
+        <v>45637</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>148</v>
       </c>
@@ -12343,6 +12349,9 @@
       <c r="G5" s="4">
         <v>45616</v>
       </c>
+      <c r="H5" s="4">
+        <v>45637</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>148</v>
       </c>
@@ -12363,6 +12372,9 @@
       <c r="G6" s="4">
         <v>45616</v>
       </c>
+      <c r="H6" s="4">
+        <v>45637</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>148</v>
       </c>
@@ -12383,6 +12395,9 @@
       <c r="G7" s="4">
         <v>45616</v>
       </c>
+      <c r="H7" s="4">
+        <v>45637</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>148</v>
       </c>
@@ -12403,6 +12418,9 @@
       <c r="G8" s="4">
         <v>45616</v>
       </c>
+      <c r="H8" s="4">
+        <v>45637</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>148</v>
       </c>
@@ -12423,6 +12441,9 @@
       <c r="G9" s="4">
         <v>45616</v>
       </c>
+      <c r="H9" s="4">
+        <v>45637</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>148</v>
       </c>
@@ -12443,6 +12464,9 @@
       <c r="G10" s="4">
         <v>45616</v>
       </c>
+      <c r="H10" s="4">
+        <v>45637</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>148</v>
       </c>
@@ -12463,6 +12487,9 @@
       <c r="G11" s="4">
         <v>45616</v>
       </c>
+      <c r="H11" s="4">
+        <v>45637</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>148</v>
       </c>
@@ -12483,6 +12510,9 @@
       <c r="G12" s="4">
         <v>45616</v>
       </c>
+      <c r="H12" s="4">
+        <v>45637</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>148</v>
       </c>
@@ -12503,6 +12533,9 @@
       <c r="G13" s="4">
         <v>45616</v>
       </c>
+      <c r="H13" s="4">
+        <v>45637</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>148</v>
       </c>
@@ -12523,6 +12556,9 @@
       <c r="G14" s="4">
         <v>45616</v>
       </c>
+      <c r="H14" s="4">
+        <v>45637</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>148</v>
       </c>
@@ -12543,6 +12579,9 @@
       <c r="G15" s="4">
         <v>45616</v>
       </c>
+      <c r="H15" s="4">
+        <v>45637</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>148</v>
       </c>
@@ -12563,6 +12602,9 @@
       <c r="G16" s="4">
         <v>45616</v>
       </c>
+      <c r="H16" s="4">
+        <v>45637</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>148</v>
       </c>
@@ -12583,6 +12625,9 @@
       <c r="G17" s="4">
         <v>45616</v>
       </c>
+      <c r="H17" s="4">
+        <v>45637</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>148</v>
       </c>
@@ -12643,6 +12688,9 @@
       <c r="G20" s="4">
         <v>45616</v>
       </c>
+      <c r="H20" s="4">
+        <v>45637</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>148</v>
       </c>
@@ -12663,6 +12711,9 @@
       <c r="G21" s="4">
         <v>45616</v>
       </c>
+      <c r="H21" s="4">
+        <v>45637</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>148</v>
       </c>
@@ -12683,6 +12734,9 @@
       <c r="G22" s="4">
         <v>45616</v>
       </c>
+      <c r="H22" s="4">
+        <v>45637</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>148</v>
       </c>
@@ -12703,6 +12757,9 @@
       <c r="G23" s="4">
         <v>45616</v>
       </c>
+      <c r="H23" s="4">
+        <v>45637</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>148</v>
       </c>
@@ -12723,6 +12780,9 @@
       <c r="G24" s="4">
         <v>45616</v>
       </c>
+      <c r="H24" s="4">
+        <v>45637</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>148</v>
       </c>
@@ -12743,6 +12803,9 @@
       <c r="G25" s="4">
         <v>45616</v>
       </c>
+      <c r="H25" s="4">
+        <v>45637</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
       </c>
@@ -12763,6 +12826,9 @@
       <c r="G26" s="4">
         <v>45616</v>
       </c>
+      <c r="H26" s="4">
+        <v>45637</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>148</v>
       </c>
@@ -12783,6 +12849,9 @@
       <c r="G27" s="4">
         <v>45616</v>
       </c>
+      <c r="H27" s="4">
+        <v>45637</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>148</v>
       </c>
@@ -12803,6 +12872,9 @@
       <c r="G28" s="4">
         <v>45616</v>
       </c>
+      <c r="H28" s="4">
+        <v>45637</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>148</v>
       </c>
@@ -12823,6 +12895,9 @@
       <c r="G29" s="4">
         <v>45616</v>
       </c>
+      <c r="H29" s="4">
+        <v>45637</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>148</v>
       </c>
@@ -12843,6 +12918,9 @@
       <c r="G30" s="4">
         <v>45616</v>
       </c>
+      <c r="H30" s="4">
+        <v>45637</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>148</v>
       </c>
@@ -12863,6 +12941,9 @@
       <c r="G31" s="4">
         <v>45616</v>
       </c>
+      <c r="H31" s="4">
+        <v>45637</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>148</v>
       </c>
@@ -12883,6 +12964,9 @@
       <c r="G32" s="4">
         <v>45616</v>
       </c>
+      <c r="H32" s="4">
+        <v>45637</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>148</v>
       </c>
@@ -12903,6 +12987,9 @@
       <c r="G33" s="4">
         <v>45616</v>
       </c>
+      <c r="H33" s="4">
+        <v>45637</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>148</v>
       </c>
@@ -12943,6 +13030,9 @@
       <c r="G35" s="4">
         <v>45616</v>
       </c>
+      <c r="H35" s="4">
+        <v>45637</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>148</v>
       </c>
@@ -12963,6 +13053,9 @@
       <c r="G36" s="4">
         <v>45616</v>
       </c>
+      <c r="H36" s="4">
+        <v>45637</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>148</v>
       </c>
@@ -12983,6 +13076,9 @@
       <c r="G37" s="4">
         <v>45616</v>
       </c>
+      <c r="H37" s="4">
+        <v>45637</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>148</v>
       </c>
@@ -13003,6 +13099,9 @@
       <c r="G38" s="4">
         <v>45616</v>
       </c>
+      <c r="H38" s="4">
+        <v>45637</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>148</v>
       </c>
@@ -13023,6 +13122,9 @@
       <c r="G39" s="4">
         <v>45616</v>
       </c>
+      <c r="H39" s="4">
+        <v>45637</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>148</v>
       </c>
@@ -13043,6 +13145,9 @@
       <c r="G40" s="4">
         <v>45616</v>
       </c>
+      <c r="H40" s="4">
+        <v>45637</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>148</v>
       </c>
@@ -13063,6 +13168,9 @@
       <c r="G41" s="4">
         <v>45616</v>
       </c>
+      <c r="H41" s="4">
+        <v>45637</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>148</v>
       </c>
@@ -13083,6 +13191,9 @@
       <c r="G42" s="4">
         <v>45616</v>
       </c>
+      <c r="H42" s="4">
+        <v>45637</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>148</v>
       </c>
@@ -13103,6 +13214,9 @@
       <c r="G43" s="4">
         <v>45616</v>
       </c>
+      <c r="H43" s="4">
+        <v>45637</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>148</v>
       </c>
@@ -13123,6 +13237,9 @@
       <c r="G44" s="4">
         <v>45616</v>
       </c>
+      <c r="H44" s="4">
+        <v>45637</v>
+      </c>
       <c r="I44" s="1" t="s">
         <v>148</v>
       </c>
@@ -13143,6 +13260,9 @@
       <c r="G45" s="4">
         <v>45616</v>
       </c>
+      <c r="H45" s="4">
+        <v>45637</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>148</v>
       </c>
@@ -13163,6 +13283,9 @@
       <c r="G46" s="4">
         <v>45616</v>
       </c>
+      <c r="H46" s="4">
+        <v>45637</v>
+      </c>
       <c r="I46" s="1" t="s">
         <v>148</v>
       </c>
@@ -13183,6 +13306,9 @@
       <c r="G47" s="4">
         <v>45616</v>
       </c>
+      <c r="H47" s="4">
+        <v>45637</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>148</v>
       </c>
@@ -13203,6 +13329,9 @@
       <c r="G48" s="4">
         <v>45616</v>
       </c>
+      <c r="H48" s="4">
+        <v>45637</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>148</v>
       </c>
@@ -13223,6 +13352,9 @@
       <c r="G49" s="4">
         <v>45616</v>
       </c>
+      <c r="H49" s="4">
+        <v>45637</v>
+      </c>
       <c r="I49" s="1" t="s">
         <v>148</v>
       </c>
@@ -13243,6 +13375,9 @@
       <c r="G50" s="4">
         <v>45616</v>
       </c>
+      <c r="H50" s="4">
+        <v>45637</v>
+      </c>
       <c r="I50" s="1" t="s">
         <v>148</v>
       </c>
@@ -13263,6 +13398,9 @@
       <c r="G51" s="4">
         <v>45616</v>
       </c>
+      <c r="H51" s="4">
+        <v>45637</v>
+      </c>
       <c r="I51" s="1" t="s">
         <v>148</v>
       </c>
@@ -14017,9 +14155,7 @@
       <c r="G88" s="4">
         <v>45624</v>
       </c>
-      <c r="H88" s="4">
-        <v>45633</v>
-      </c>
+      <c r="H88" s="4"/>
       <c r="I88" s="1" t="s">
         <v>149</v>
       </c>
@@ -14417,9 +14553,7 @@
       <c r="G108" s="4">
         <v>45624</v>
       </c>
-      <c r="H108" s="4">
-        <v>45633</v>
-      </c>
+      <c r="H108" s="4"/>
       <c r="I108" s="1" t="s">
         <v>149</v>
       </c>

--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF90CE26-6FE8-4387-86E3-D227CAB60157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE593C-795B-4ACE-9291-5F96317DAE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
   <sheets>
     <sheet name="ウォッチリスト" sheetId="1" r:id="rId1"/>
@@ -12248,17 +12248,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="2"/>
-    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="2"/>
+    <col min="4" max="4" width="28.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.09765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="63" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -12303,9 +12303,7 @@
       <c r="G3" s="4">
         <v>45616</v>
       </c>
-      <c r="H3" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
         <v>148</v>
       </c>
@@ -12326,9 +12324,7 @@
       <c r="G4" s="4">
         <v>45616</v>
       </c>
-      <c r="H4" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
         <v>148</v>
       </c>
@@ -12349,9 +12345,7 @@
       <c r="G5" s="4">
         <v>45616</v>
       </c>
-      <c r="H5" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
         <v>148</v>
       </c>
@@ -12372,9 +12366,7 @@
       <c r="G6" s="4">
         <v>45616</v>
       </c>
-      <c r="H6" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
         <v>148</v>
       </c>
@@ -12395,9 +12387,7 @@
       <c r="G7" s="4">
         <v>45616</v>
       </c>
-      <c r="H7" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
         <v>148</v>
       </c>
@@ -12418,9 +12408,7 @@
       <c r="G8" s="4">
         <v>45616</v>
       </c>
-      <c r="H8" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="1" t="s">
         <v>148</v>
       </c>
@@ -12441,9 +12429,7 @@
       <c r="G9" s="4">
         <v>45616</v>
       </c>
-      <c r="H9" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="1" t="s">
         <v>148</v>
       </c>
@@ -12464,9 +12450,7 @@
       <c r="G10" s="4">
         <v>45616</v>
       </c>
-      <c r="H10" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="1" t="s">
         <v>148</v>
       </c>
@@ -12487,9 +12471,7 @@
       <c r="G11" s="4">
         <v>45616</v>
       </c>
-      <c r="H11" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="1" t="s">
         <v>148</v>
       </c>
@@ -12510,9 +12492,7 @@
       <c r="G12" s="4">
         <v>45616</v>
       </c>
-      <c r="H12" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="1" t="s">
         <v>148</v>
       </c>
@@ -12533,9 +12513,7 @@
       <c r="G13" s="4">
         <v>45616</v>
       </c>
-      <c r="H13" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="1" t="s">
         <v>148</v>
       </c>
@@ -12556,9 +12534,7 @@
       <c r="G14" s="4">
         <v>45616</v>
       </c>
-      <c r="H14" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="1" t="s">
         <v>148</v>
       </c>
@@ -12579,9 +12555,7 @@
       <c r="G15" s="4">
         <v>45616</v>
       </c>
-      <c r="H15" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="1" t="s">
         <v>148</v>
       </c>
@@ -12602,9 +12576,7 @@
       <c r="G16" s="4">
         <v>45616</v>
       </c>
-      <c r="H16" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="1" t="s">
         <v>148</v>
       </c>
@@ -12625,9 +12597,7 @@
       <c r="G17" s="4">
         <v>45616</v>
       </c>
-      <c r="H17" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="1" t="s">
         <v>148</v>
       </c>
@@ -12688,9 +12658,7 @@
       <c r="G20" s="4">
         <v>45616</v>
       </c>
-      <c r="H20" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="1" t="s">
         <v>148</v>
       </c>
@@ -12711,9 +12679,7 @@
       <c r="G21" s="4">
         <v>45616</v>
       </c>
-      <c r="H21" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="1" t="s">
         <v>148</v>
       </c>
@@ -12734,9 +12700,7 @@
       <c r="G22" s="4">
         <v>45616</v>
       </c>
-      <c r="H22" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="1" t="s">
         <v>148</v>
       </c>
@@ -12757,9 +12721,7 @@
       <c r="G23" s="4">
         <v>45616</v>
       </c>
-      <c r="H23" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="1" t="s">
         <v>148</v>
       </c>
@@ -12780,9 +12742,7 @@
       <c r="G24" s="4">
         <v>45616</v>
       </c>
-      <c r="H24" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="1" t="s">
         <v>148</v>
       </c>
@@ -12803,9 +12763,7 @@
       <c r="G25" s="4">
         <v>45616</v>
       </c>
-      <c r="H25" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="1" t="s">
         <v>148</v>
       </c>
@@ -12826,9 +12784,7 @@
       <c r="G26" s="4">
         <v>45616</v>
       </c>
-      <c r="H26" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="1" t="s">
         <v>148</v>
       </c>
@@ -12849,9 +12805,7 @@
       <c r="G27" s="4">
         <v>45616</v>
       </c>
-      <c r="H27" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="1" t="s">
         <v>148</v>
       </c>
@@ -12872,9 +12826,7 @@
       <c r="G28" s="4">
         <v>45616</v>
       </c>
-      <c r="H28" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="1" t="s">
         <v>148</v>
       </c>
@@ -12895,9 +12847,7 @@
       <c r="G29" s="4">
         <v>45616</v>
       </c>
-      <c r="H29" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
         <v>148</v>
       </c>
@@ -12918,9 +12868,7 @@
       <c r="G30" s="4">
         <v>45616</v>
       </c>
-      <c r="H30" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="1" t="s">
         <v>148</v>
       </c>
@@ -12941,9 +12889,7 @@
       <c r="G31" s="4">
         <v>45616</v>
       </c>
-      <c r="H31" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="1" t="s">
         <v>148</v>
       </c>
@@ -12964,9 +12910,7 @@
       <c r="G32" s="4">
         <v>45616</v>
       </c>
-      <c r="H32" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="1" t="s">
         <v>148</v>
       </c>
@@ -12987,9 +12931,7 @@
       <c r="G33" s="4">
         <v>45616</v>
       </c>
-      <c r="H33" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="1" t="s">
         <v>148</v>
       </c>
@@ -15212,9 +15154,7 @@
       <c r="G141" s="4">
         <v>45626</v>
       </c>
-      <c r="H141" s="4">
-        <v>45633</v>
-      </c>
+      <c r="H141" s="4"/>
       <c r="I141" s="1" t="s">
         <v>153</v>
       </c>
@@ -15235,9 +15175,7 @@
       <c r="G142" s="4">
         <v>45630</v>
       </c>
-      <c r="H142" s="4">
-        <v>45633</v>
-      </c>
+      <c r="H142" s="4"/>
       <c r="I142" s="1" t="s">
         <v>158</v>
       </c>
@@ -15258,9 +15196,7 @@
       <c r="G143" s="4">
         <v>45631</v>
       </c>
-      <c r="H143" s="4">
-        <v>45633</v>
-      </c>
+      <c r="H143" s="4"/>
       <c r="I143" s="1" t="s">
         <v>158</v>
       </c>
@@ -15281,9 +15217,7 @@
       <c r="G144" s="4">
         <v>45631</v>
       </c>
-      <c r="H144" s="4">
-        <v>45633</v>
-      </c>
+      <c r="H144" s="4"/>
       <c r="I144" s="1" t="s">
         <v>161</v>
       </c>

--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE593C-795B-4ACE-9291-5F96317DAE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23E69E-4B2E-465E-87F5-9DD9E93F4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
@@ -14710,12 +14710,13 @@
       <c r="E119" s="1">
         <v>1</v>
       </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
       <c r="G119" s="4">
         <v>45624</v>
       </c>
-      <c r="H119" s="4">
-        <v>45633</v>
-      </c>
+      <c r="H119" s="4"/>
       <c r="I119" s="1" t="s">
         <v>149</v>
       </c>
@@ -88152,12 +88153,13 @@
       <c r="E3791" s="1">
         <v>1</v>
       </c>
+      <c r="F3791" s="1">
+        <v>1</v>
+      </c>
       <c r="G3791" s="4">
         <v>45632</v>
       </c>
-      <c r="H3791" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3791" s="4"/>
       <c r="I3791" s="1" t="s">
         <v>3865</v>
       </c>

--- a/ウォッチリスト.xlsx
+++ b/ウォッチリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23E69E-4B2E-465E-87F5-9DD9E93F4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020CB7C0-B050-4576-92BC-C6221BE5CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
@@ -12303,7 +12303,9 @@
       <c r="G3" s="4">
         <v>45616</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>45643</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>148</v>
       </c>
@@ -12324,7 +12326,9 @@
       <c r="G4" s="4">
         <v>45616</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>45643</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>148</v>
       </c>
@@ -12342,6 +12346,9 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="4">
         <v>45616</v>
       </c>
@@ -12363,6 +12370,9 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="4">
         <v>45616</v>
       </c>
@@ -12387,7 +12397,9 @@
       <c r="G7" s="4">
         <v>45616</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>45643</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>148</v>
       </c>
@@ -12408,7 +12420,9 @@
       <c r="G8" s="4">
         <v>45616</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>45643</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>148</v>
       </c>
@@ -12429,7 +12443,9 @@
       <c r="G9" s="4">
         <v>45616</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>45643</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>148</v>
       </c>
@@ -12450,7 +12466,9 @@
       <c r="G10" s="4">
         <v>45616</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>45643</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>148</v>
       </c>
@@ -12471,7 +12489,9 @@
       <c r="G11" s="4">
         <v>45616</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>45643</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>148</v>
       </c>
@@ -12492,7 +12512,9 @@
       <c r="G12" s="4">
         <v>45616</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>45643</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>148</v>
       </c>
@@ -12510,6 +12532,9 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="4">
         <v>45616</v>
       </c>
@@ -12534,7 +12559,9 @@
       <c r="G14" s="4">
         <v>45616</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>45643</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>148</v>
       </c>
@@ -12552,6 +12579,9 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="4">
         <v>45616</v>
       </c>
@@ -12573,6 +12603,9 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="4">
         <v>45616</v>
       </c>
@@ -12597,7 +12630,9 @@
       <c r="G17" s="4">
         <v>45616</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>45643</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>148</v>
       </c>
@@ -12618,6 +12653,9 @@
       <c r="G18" s="4">
         <v>45616</v>
       </c>
+      <c r="H18" s="4">
+        <v>45643</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>148</v>
       </c>
@@ -12638,6 +12676,9 @@
       <c r="G19" s="4">
         <v>45616</v>
       </c>
+      <c r="H19" s="4">
+        <v>45643</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>148</v>
       </c>
@@ -12658,7 +12699,9 @@
       <c r="G20" s="4">
         <v>45616</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>45643</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>148</v>
       </c>
@@ -12679,7 +12722,9 @@
       <c r="G21" s="4">
         <v>45616</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>45643</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>148</v>
       </c>
@@ -12697,6 +12742,9 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="4">
         <v>45616</v>
       </c>
@@ -12721,7 +12769,9 @@
       <c r="G23" s="4">
         <v>45616</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>45643</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>148</v>
       </c>
@@ -12742,7 +12792,9 @@
       <c r="G24" s="4">
         <v>45616</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>45643</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>148</v>
       </c>
@@ -12763,7 +12815,9 @@
       <c r="G25" s="4">
         <v>45616</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>45643</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
       </c>
@@ -12784,7 +12838,9 @@
       <c r="G26" s="4">
         <v>45616</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>45643</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>148</v>
       </c>
@@ -12805,7 +12861,9 @@
       <c r="G27" s="4">
         <v>45616</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4">
+        <v>45643</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>148</v>
       </c>
@@ -12826,7 +12884,9 @@
       <c r="G28" s="4">
         <v>45616</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>45643</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>148</v>
       </c>
@@ -12844,6 +12904,9 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
       <c r="G29" s="4">
         <v>45616</v>
       </c>
@@ -12865,6 +12928,9 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
       <c r="G30" s="4">
         <v>45616</v>
       </c>
@@ -12889,7 +12955,9 @@
       <c r="G31" s="4">
         <v>45616</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4">
+        <v>45643</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>148</v>
       </c>
@@ -12910,7 +12978,9 @@
       <c r="G32" s="4">
         <v>45616</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4">
+        <v>45643</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>148</v>
       </c>
@@ -12931,7 +13001,9 @@
       <c r="G33" s="4">
         <v>45616</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4">
+        <v>45643</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>148</v>
       </c>
@@ -12952,6 +13024,9 @@
       <c r="G34" s="4">
         <v>45616</v>
       </c>
+      <c r="H34" s="4">
+        <v>45643</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>148</v>
       </c>
@@ -14097,7 +14172,9 @@
       <c r="G88" s="4">
         <v>45624</v>
       </c>
-      <c r="H88" s="4"/>
+      <c r="H88" s="4">
+        <v>45643</v>
+      </c>
       <c r="I88" s="1" t="s">
         <v>149</v>
       </c>
@@ -14495,7 +14572,9 @@
       <c r="G108" s="4">
         <v>45624</v>
       </c>
-      <c r="H108" s="4"/>
+      <c r="H108" s="4">
+        <v>45643</v>
+      </c>
       <c r="I108" s="1" t="s">
         <v>149</v>
       </c>
@@ -14834,7 +14913,9 @@
       <c r="G125" s="4">
         <v>45624</v>
       </c>
-      <c r="H125" s="4"/>
+      <c r="H125" s="4">
+        <v>45643</v>
+      </c>
       <c r="I125" s="1" t="s">
         <v>149</v>
       </c>
@@ -15089,12 +15170,13 @@
       <c r="E138" s="1">
         <v>1</v>
       </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
       <c r="G138" s="4">
         <v>45624</v>
       </c>
-      <c r="H138" s="4">
-        <v>45633</v>
-      </c>
+      <c r="H138" s="4"/>
       <c r="I138" s="1" t="s">
         <v>149</v>
       </c>
@@ -15155,7 +15237,9 @@
       <c r="G141" s="4">
         <v>45626</v>
       </c>
-      <c r="H141" s="4"/>
+      <c r="H141" s="4">
+        <v>45643</v>
+      </c>
       <c r="I141" s="1" t="s">
         <v>153</v>
       </c>
@@ -15176,7 +15260,9 @@
       <c r="G142" s="4">
         <v>45630</v>
       </c>
-      <c r="H142" s="4"/>
+      <c r="H142" s="4">
+        <v>45643</v>
+      </c>
       <c r="I142" s="1" t="s">
         <v>158</v>
       </c>
@@ -15197,7 +15283,9 @@
       <c r="G143" s="4">
         <v>45631</v>
       </c>
-      <c r="H143" s="4"/>
+      <c r="H143" s="4">
+        <v>45643</v>
+      </c>
       <c r="I143" s="1" t="s">
         <v>158</v>
       </c>
@@ -15218,7 +15306,9 @@
       <c r="G144" s="4">
         <v>45631</v>
       </c>
-      <c r="H144" s="4"/>
+      <c r="H144" s="4">
+        <v>45643</v>
+      </c>
       <c r="I144" s="1" t="s">
         <v>161</v>
       </c>
@@ -15373,12 +15463,13 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
       <c r="G152" s="4">
         <v>45632</v>
       </c>
-      <c r="H152" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H152" s="4"/>
       <c r="I152" s="1" t="s">
         <v>3865</v>
       </c>
@@ -18273,12 +18364,13 @@
       <c r="E297" s="1">
         <v>1</v>
       </c>
+      <c r="F297" s="1">
+        <v>1</v>
+      </c>
       <c r="G297" s="4">
         <v>45632</v>
       </c>
-      <c r="H297" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H297" s="4"/>
       <c r="I297" s="1" t="s">
         <v>3865</v>
       </c>
@@ -30133,12 +30225,13 @@
       <c r="E890" s="1">
         <v>1</v>
       </c>
+      <c r="F890" s="1">
+        <v>1</v>
+      </c>
       <c r="G890" s="4">
         <v>45632</v>
       </c>
-      <c r="H890" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H890" s="4"/>
       <c r="I890" s="1" t="s">
         <v>3865</v>
       </c>
@@ -34633,12 +34726,13 @@
       <c r="E1115" s="1">
         <v>1</v>
       </c>
+      <c r="F1115" s="1">
+        <v>1</v>
+      </c>
       <c r="G1115" s="4">
         <v>45632</v>
       </c>
-      <c r="H1115" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H1115" s="4"/>
       <c r="I1115" s="1" t="s">
         <v>3865</v>
       </c>
@@ -37173,12 +37267,13 @@
       <c r="E1242" s="1">
         <v>1</v>
       </c>
+      <c r="F1242" s="1">
+        <v>1</v>
+      </c>
       <c r="G1242" s="4">
         <v>45632</v>
       </c>
-      <c r="H1242" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H1242" s="4"/>
       <c r="I1242" s="1" t="s">
         <v>3865</v>
       </c>
@@ -42273,12 +42368,13 @@
       <c r="E1497" s="1">
         <v>1</v>
       </c>
+      <c r="F1497" s="1">
+        <v>1</v>
+      </c>
       <c r="G1497" s="4">
         <v>45632</v>
       </c>
-      <c r="H1497" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H1497" s="4"/>
       <c r="I1497" s="1" t="s">
         <v>3865</v>
       </c>
@@ -47073,12 +47169,13 @@
       <c r="E1737" s="1">
         <v>1</v>
       </c>
+      <c r="F1737" s="1">
+        <v>1</v>
+      </c>
       <c r="G1737" s="4">
         <v>45632</v>
       </c>
-      <c r="H1737" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H1737" s="4"/>
       <c r="I1737" s="1" t="s">
         <v>3865</v>
       </c>
@@ -50793,12 +50890,13 @@
       <c r="E1923" s="1">
         <v>1</v>
       </c>
+      <c r="F1923" s="1">
+        <v>1</v>
+      </c>
       <c r="G1923" s="4">
         <v>45632</v>
       </c>
-      <c r="H1923" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H1923" s="4"/>
       <c r="I1923" s="1" t="s">
         <v>3865</v>
       </c>
@@ -52133,12 +52231,13 @@
       <c r="E1990" s="1">
         <v>1</v>
       </c>
+      <c r="F1990" s="1">
+        <v>1</v>
+      </c>
       <c r="G1990" s="4">
         <v>45632</v>
       </c>
-      <c r="H1990" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H1990" s="4"/>
       <c r="I1990" s="1" t="s">
         <v>3865</v>
       </c>
@@ -54193,12 +54292,13 @@
       <c r="E2093" s="1">
         <v>1</v>
       </c>
+      <c r="F2093" s="1">
+        <v>1</v>
+      </c>
       <c r="G2093" s="4">
         <v>45632</v>
       </c>
-      <c r="H2093" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H2093" s="4"/>
       <c r="I2093" s="1" t="s">
         <v>3865</v>
       </c>
@@ -57333,12 +57433,13 @@
       <c r="E2250" s="1">
         <v>1</v>
       </c>
+      <c r="F2250" s="1">
+        <v>1</v>
+      </c>
       <c r="G2250" s="4">
         <v>45632</v>
       </c>
-      <c r="H2250" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H2250" s="4"/>
       <c r="I2250" s="1" t="s">
         <v>3865</v>
       </c>
@@ -61613,12 +61714,13 @@
       <c r="E2464" s="1">
         <v>1</v>
       </c>
+      <c r="F2464" s="1">
+        <v>1</v>
+      </c>
       <c r="G2464" s="4">
         <v>45632</v>
       </c>
-      <c r="H2464" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H2464" s="4"/>
       <c r="I2464" s="1" t="s">
         <v>3865</v>
       </c>
@@ -71973,12 +72075,13 @@
       <c r="E2982" s="1">
         <v>1</v>
       </c>
+      <c r="F2982" s="1">
+        <v>1</v>
+      </c>
       <c r="G2982" s="4">
         <v>45632</v>
       </c>
-      <c r="H2982" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H2982" s="4"/>
       <c r="I2982" s="1" t="s">
         <v>3865</v>
       </c>
@@ -74573,12 +74676,13 @@
       <c r="E3112" s="1">
         <v>1</v>
       </c>
+      <c r="F3112" s="1">
+        <v>1</v>
+      </c>
       <c r="G3112" s="4">
         <v>45632</v>
       </c>
-      <c r="H3112" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3112" s="4"/>
       <c r="I3112" s="1" t="s">
         <v>3865</v>
       </c>
@@ -74953,12 +75057,13 @@
       <c r="E3131" s="1">
         <v>1</v>
       </c>
+      <c r="F3131" s="1">
+        <v>1</v>
+      </c>
       <c r="G3131" s="4">
         <v>45632</v>
       </c>
-      <c r="H3131" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3131" s="4"/>
       <c r="I3131" s="1" t="s">
         <v>3865</v>
       </c>
@@ -78893,12 +78998,13 @@
       <c r="E3328" s="1">
         <v>1</v>
       </c>
+      <c r="F3328" s="1">
+        <v>1</v>
+      </c>
       <c r="G3328" s="4">
         <v>45632</v>
       </c>
-      <c r="H3328" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3328" s="4"/>
       <c r="I3328" s="1" t="s">
         <v>3865</v>
       </c>
@@ -78973,12 +79079,13 @@
       <c r="E3332" s="1">
         <v>1</v>
       </c>
+      <c r="F3332" s="1">
+        <v>1</v>
+      </c>
       <c r="G3332" s="4">
         <v>45632</v>
       </c>
-      <c r="H3332" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3332" s="4"/>
       <c r="I3332" s="1" t="s">
         <v>3865</v>
       </c>
@@ -79713,12 +79820,13 @@
       <c r="E3369" s="1">
         <v>1</v>
       </c>
+      <c r="F3369" s="1">
+        <v>1</v>
+      </c>
       <c r="G3369" s="4">
         <v>45632</v>
       </c>
-      <c r="H3369" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3369" s="4"/>
       <c r="I3369" s="1" t="s">
         <v>3865</v>
       </c>
@@ -80873,12 +80981,13 @@
       <c r="E3427" s="1">
         <v>1</v>
       </c>
+      <c r="F3427" s="1">
+        <v>1</v>
+      </c>
       <c r="G3427" s="4">
         <v>45632</v>
       </c>
-      <c r="H3427" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3427" s="4"/>
       <c r="I3427" s="1" t="s">
         <v>3865</v>
       </c>
@@ -82193,12 +82302,13 @@
       <c r="E3493" s="1">
         <v>1</v>
       </c>
+      <c r="F3493" s="1">
+        <v>1</v>
+      </c>
       <c r="G3493" s="4">
         <v>45632</v>
       </c>
-      <c r="H3493" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3493" s="4"/>
       <c r="I3493" s="1" t="s">
         <v>3865</v>
       </c>
@@ -83293,12 +83403,13 @@
       <c r="E3548" s="1">
         <v>1</v>
       </c>
+      <c r="F3548" s="1">
+        <v>1</v>
+      </c>
       <c r="G3548" s="4">
         <v>45632</v>
       </c>
-      <c r="H3548" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3548" s="4"/>
       <c r="I3548" s="1" t="s">
         <v>3865</v>
       </c>
@@ -85153,12 +85264,13 @@
       <c r="E3641" s="1">
         <v>1</v>
       </c>
+      <c r="F3641" s="1">
+        <v>1</v>
+      </c>
       <c r="G3641" s="4">
         <v>45632</v>
       </c>
-      <c r="H3641" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3641" s="4"/>
       <c r="I3641" s="1" t="s">
         <v>3865</v>
       </c>
@@ -89094,12 +89206,13 @@
       <c r="E3838" s="1">
         <v>1</v>
       </c>
+      <c r="F3838" s="1">
+        <v>1</v>
+      </c>
       <c r="G3838" s="4">
         <v>45632</v>
       </c>
-      <c r="H3838" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3838" s="4"/>
       <c r="I3838" s="1" t="s">
         <v>3865</v>
       </c>
@@ -89114,12 +89227,13 @@
       <c r="E3839" s="1">
         <v>1</v>
       </c>
+      <c r="F3839" s="1">
+        <v>1</v>
+      </c>
       <c r="G3839" s="4">
         <v>45632</v>
       </c>
-      <c r="H3839" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H3839" s="4"/>
       <c r="I3839" s="1" t="s">
         <v>3865</v>
       </c>
